--- a/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -251,6 +251,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -271,9 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,10 +556,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -571,26 +571,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14">
         <v>43065</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -620,7 +620,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
@@ -630,7 +630,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -640,7 +640,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
@@ -650,7 +650,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -660,7 +660,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
@@ -670,7 +670,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
@@ -680,7 +680,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
@@ -690,7 +690,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
@@ -700,7 +700,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
@@ -710,7 +710,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
@@ -720,7 +720,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
@@ -730,7 +730,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
@@ -740,7 +740,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
@@ -750,7 +750,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
@@ -760,7 +760,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
@@ -770,17 +770,17 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
@@ -818,87 +818,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
-        <v>4</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>

--- a/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
@@ -97,10 +97,6 @@
       <t>选票vote张，其中有效票yx张，无效票wx张。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入计票人：recorder</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -126,12 +122,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>录入计票人：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -174,6 +174,12 @@
     <font>
       <b/>
       <sz val="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -232,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +280,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,8 +567,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -572,7 +581,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -806,8 +815,8 @@
       <c r="A22" s="5">
         <v>1</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
@@ -820,7 +829,7 @@
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>

--- a/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="纪委委员" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">纪委委员!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">纪委委员!$21:$21</definedName>
   </definedNames>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -40,14 +40,6 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,53 +77,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>领回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选票vote张，其中有效票yx张，无效票wx张。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中共北京师范大学第十三届纪律检查委员会委员计票结果报告单</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>—</t>
+  </si>
+  <si>
+    <t>录入计票人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共北京师范大学第十三届纪律检查委员会委员计票结果报告单
 （name）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入计票人：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领回选票vote张，其中有效票yx张，无效票wx张。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -160,20 +130,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -260,29 +218,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +525,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -580,26 +538,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13">
         <v>43065</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -618,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -782,14 +740,14 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
@@ -808,34 +766,38 @@
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>1</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D22" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -843,9 +805,9 @@
   <mergeCells count="5">
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFB4EB-E7CB-4484-A0B5-EDC265BAE787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="3705" yWindow="5145" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="纪委委员" sheetId="2" r:id="rId1"/>
@@ -84,23 +85,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中共北京师范大学第十三届纪律检查委员会委员计票结果报告单
+    <t>领回选票vote张，其中有效票yx张，无效票wx张。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title
 （name）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领回选票vote张，其中有效票yx张，无效票wx张。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -521,12 +522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -539,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -549,7 +550,7 @@
     </row>
     <row r="2" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -774,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>

--- a/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw_jp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFB4EB-E7CB-4484-A0B5-EDC265BAE787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61125D0-890A-4AA7-AD3F-69725B711D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="5145" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="纪委委员" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -52,6 +52,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(模糊无法辨认)</t>
@@ -67,6 +68,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(模糊无法辨认)</t>
@@ -95,6 +97,10 @@
   <si>
     <t>title
 （name）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年   月   日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,23 +117,27 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -231,9 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -242,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +537,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -555,10 +565,10 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="13">
-        <v>43065</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -791,14 +801,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
